--- a/demotest2.xlsx
+++ b/demotest2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus10\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3885808F-849A-44A3-89E0-13AF31CC0172}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35FA2F0-5CD4-42BB-9026-094E07250C47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -342,9 +342,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,7 +677,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="I2" sqref="I2:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,7 +752,7 @@
       <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>90</v>
       </c>
     </row>
@@ -802,7 +803,7 @@
       <c r="H5" t="s">
         <v>29</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>91</v>
       </c>
     </row>
@@ -839,7 +840,7 @@
       <c r="H7" t="s">
         <v>36</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>91</v>
       </c>
     </row>
@@ -890,7 +891,7 @@
       <c r="H10" t="s">
         <v>36</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="2" t="s">
         <v>90</v>
       </c>
     </row>
@@ -938,7 +939,7 @@
       <c r="H13" t="s">
         <v>51</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="2" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1031,7 +1032,7 @@
       <c r="H19" t="s">
         <v>73</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="2" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1068,7 +1069,7 @@
       <c r="H21" t="s">
         <v>80</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="2" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1160,6 +1161,9 @@
       </c>
       <c r="H27" t="s">
         <v>80</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
